--- a/Process/Timesheet/TeamAlpha-Timesheet 11.xlsx
+++ b/Process/Timesheet/TeamAlpha-Timesheet 11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB5E3A-6DF0-478A-B8C2-AC285171CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{978544D6-3ABC-40B2-B81F-603A356CAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="21" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="619">
   <si>
     <t>Column1</t>
   </si>
@@ -1995,6 +1995,24 @@
     <t>Learnt Http communication- Sending &amp; receiving response, Angular services</t>
   </si>
   <si>
+    <t>Checking Mail</t>
+  </si>
+  <si>
+    <t>worked on EFcore</t>
+  </si>
+  <si>
+    <t>worked on department service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          02:15.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Updated Roles Services Logging </t>
   </si>
   <si>
@@ -2052,6 +2070,72 @@
     <t>break</t>
   </si>
   <si>
+    <t>Checking mails</t>
+  </si>
+  <si>
+    <t>worked on department Service(controller)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         07.55.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Break and Lunch</t>
+  </si>
+  <si>
+    <t>worked on Department Service (controller)</t>
+  </si>
+  <si>
+    <t>worked on Department servic(service)</t>
+  </si>
+  <si>
+    <t>Break and Lunch</t>
+  </si>
+  <si>
+    <t>Worked on Department Service(service)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         00:55:00</t>
+  </si>
+  <si>
+    <t>worked on Department Service(DataFactory)</t>
+  </si>
+  <si>
+    <t>13.30.00</t>
+  </si>
+  <si>
+    <t>14.00.00</t>
+  </si>
+  <si>
+    <t>00.30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          09:05.00</t>
+  </si>
+  <si>
+    <t>Worked on Department Service(DataAccessLayer)</t>
+  </si>
+  <si>
+    <t>15.30.00</t>
+  </si>
+  <si>
+    <t>01.30.00</t>
+  </si>
+  <si>
+    <t>15.45.00</t>
+  </si>
+  <si>
+    <t>00.15.00</t>
+  </si>
+  <si>
+    <t>Error Correction on Department Service</t>
+  </si>
+  <si>
+    <t>17.00.00</t>
+  </si>
+  <si>
+    <t>01.15.00</t>
+  </si>
+  <si>
     <t>worked on Logger and Intergrated Drive service with Role service</t>
   </si>
   <si>
@@ -2178,6 +2262,24 @@
     <t>Created component (TAC Header, MyDashboard,Poolmem-performance)</t>
   </si>
   <si>
+    <t>checking Mail</t>
+  </si>
+  <si>
+    <t>Refined Department Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          01:00:00</t>
+  </si>
+  <si>
+    <t>Software Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         00:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          03:30.00</t>
+  </si>
+  <si>
     <t>worked on Drive validations</t>
   </si>
   <si>
@@ -2218,9 +2320,6 @@
   </si>
   <si>
     <t xml:space="preserve">pending work - div class for (admin role and request from TAC) </t>
-  </si>
-  <si>
-    <t>Checking Mail</t>
   </si>
   <si>
     <t>Checking on components to be created for TAC</t>
@@ -2758,10 +2857,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2770,7 +2869,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15348,7 +15447,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -15378,7 +15477,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -15407,7 +15506,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -15436,7 +15535,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -15465,7 +15564,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -15494,7 +15593,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -15523,7 +15622,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -15549,7 +15648,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -15575,7 +15674,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -15595,7 +15694,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -15615,7 +15714,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -15634,7 +15733,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -15653,7 +15752,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -15672,7 +15771,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -15691,7 +15790,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -15702,7 +15801,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -15725,7 +15824,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -15747,7 +15846,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -15769,7 +15868,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -15791,7 +15890,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -15813,7 +15912,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -15835,7 +15934,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -15859,7 +15958,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -15881,7 +15980,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -15897,7 +15996,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -15909,7 +16008,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -15920,7 +16019,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -15931,7 +16030,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -15942,7 +16041,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -15953,7 +16052,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -15964,7 +16063,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -15991,7 +16090,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -16017,7 +16116,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -16043,7 +16142,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -16069,7 +16168,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -16095,7 +16194,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -16121,7 +16220,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -16147,7 +16246,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -16173,7 +16272,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -16193,7 +16292,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -16213,7 +16312,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -16232,7 +16331,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -16251,7 +16350,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -16270,7 +16369,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -16516,7 +16615,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -16543,7 +16642,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -16568,7 +16667,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -16594,7 +16693,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -16620,7 +16719,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -16646,7 +16745,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -16672,7 +16771,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -16698,7 +16797,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -16724,7 +16823,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -16744,7 +16843,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -16764,7 +16863,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -16775,7 +16874,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -16786,7 +16885,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -16797,7 +16896,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -16808,7 +16907,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -16819,7 +16918,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -16846,7 +16945,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -16872,7 +16971,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -16898,7 +16997,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -16924,7 +17023,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -16950,7 +17049,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -16976,7 +17075,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -17002,7 +17101,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -17028,7 +17127,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -17048,7 +17147,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -17068,7 +17167,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -17087,7 +17186,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -17098,7 +17197,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -17109,7 +17208,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -17120,7 +17219,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="62"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -17131,7 +17230,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -17158,7 +17257,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -17184,7 +17283,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -17210,7 +17309,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -17236,7 +17335,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -17262,7 +17361,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -17288,7 +17387,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -17314,7 +17413,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -17340,7 +17439,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -17360,7 +17459,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -17380,7 +17479,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -17399,7 +17498,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -17407,7 +17506,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -17415,7 +17514,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -17743,7 +17842,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="65" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -17770,7 +17869,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -17796,7 +17895,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -17822,7 +17921,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -17848,7 +17947,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -17874,7 +17973,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -17900,7 +17999,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -17926,7 +18025,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -17952,7 +18051,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="61"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -17972,7 +18071,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -17992,7 +18091,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -18011,7 +18110,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -18022,7 +18121,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -18033,7 +18132,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -18359,7 +18458,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="65" t="s">
+      <c r="A152" s="61" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -18386,7 +18485,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -18412,7 +18511,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -18438,7 +18537,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -18464,7 +18563,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -18490,7 +18589,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -18516,7 +18615,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -18542,7 +18641,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -18568,7 +18667,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -18588,7 +18687,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -18600,7 +18699,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="61"/>
+      <c r="A162" s="62"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -18611,7 +18710,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="61"/>
+      <c r="A163" s="62"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -18622,7 +18721,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="61"/>
+      <c r="A164" s="62"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -18633,7 +18732,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="61"/>
+      <c r="A165" s="62"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -18644,7 +18743,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="61"/>
+      <c r="A166" s="62"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -18656,17 +18755,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -18772,7 +18871,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -18802,7 +18901,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -18831,7 +18930,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -18860,7 +18959,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -18889,7 +18988,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -18918,7 +19017,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -18947,7 +19046,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -18973,7 +19072,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -18999,7 +19098,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -19019,7 +19118,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -19039,7 +19138,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -19058,7 +19157,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -19077,7 +19176,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -19096,7 +19195,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -19115,7 +19214,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -19134,7 +19233,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -19161,7 +19260,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -19187,7 +19286,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -19213,7 +19312,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -19239,7 +19338,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -19265,7 +19364,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -19291,7 +19390,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -19317,7 +19416,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -19343,7 +19442,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -19363,7 +19462,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -19383,7 +19482,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -19402,7 +19501,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -19421,7 +19520,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -19440,7 +19539,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -19451,7 +19550,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -19462,7 +19561,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -19489,7 +19588,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -19515,7 +19614,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -19541,7 +19640,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -19567,7 +19666,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -19593,7 +19692,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -19619,7 +19718,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -19645,7 +19744,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -19671,7 +19770,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -19691,7 +19790,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -19711,7 +19810,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -19730,7 +19829,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -19749,7 +19848,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -19768,7 +19867,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -20032,7 +20131,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -20051,7 +20150,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -20068,7 +20167,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -20086,7 +20185,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -20104,7 +20203,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -20122,7 +20221,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -20140,7 +20239,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="56" t="s">
         <v>388</v>
       </c>
@@ -20160,7 +20259,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -20178,7 +20277,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -20190,7 +20289,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -20202,7 +20301,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -20213,7 +20312,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -20224,7 +20323,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -20235,7 +20334,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -20246,7 +20345,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -20257,7 +20356,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -20284,7 +20383,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="51" t="s">
         <v>389</v>
       </c>
@@ -20310,7 +20409,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="51" t="s">
         <v>390</v>
       </c>
@@ -20336,7 +20435,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -20362,7 +20461,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="51" t="s">
         <v>391</v>
       </c>
@@ -20388,7 +20487,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -20414,7 +20513,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -20440,7 +20539,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -20466,7 +20565,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -20486,7 +20585,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -20506,7 +20605,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -20525,7 +20624,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -20544,7 +20643,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -20563,7 +20662,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -20574,7 +20673,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="62"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -20585,7 +20684,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -20612,7 +20711,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="51" t="s">
         <v>398</v>
       </c>
@@ -20638,7 +20737,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="56" t="s">
         <v>399</v>
       </c>
@@ -20664,7 +20763,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="51" t="s">
         <v>400</v>
       </c>
@@ -20690,7 +20789,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -20716,7 +20815,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="51" t="s">
         <v>401</v>
       </c>
@@ -20742,7 +20841,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="51" t="s">
         <v>402</v>
       </c>
@@ -20768,7 +20867,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="51" t="s">
         <v>403</v>
       </c>
@@ -20794,7 +20893,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="51" t="s">
         <v>404</v>
       </c>
@@ -20814,7 +20913,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="51" t="s">
         <v>405</v>
       </c>
@@ -20834,7 +20933,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="51" t="s">
         <v>406</v>
       </c>
@@ -20853,7 +20952,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="51" t="s">
         <v>407</v>
       </c>
@@ -20872,7 +20971,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -20891,7 +20990,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="51" t="s">
         <v>408</v>
       </c>
@@ -21253,7 +21352,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="65" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -21280,7 +21379,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="51" t="s">
         <v>420</v>
       </c>
@@ -21306,7 +21405,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="51" t="s">
         <v>421</v>
       </c>
@@ -21332,7 +21431,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="51" t="s">
         <v>422</v>
       </c>
@@ -21358,7 +21457,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="51" t="s">
         <v>423</v>
       </c>
@@ -21384,7 +21483,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="56" t="s">
         <v>424</v>
       </c>
@@ -21410,7 +21509,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="51" t="s">
         <v>425</v>
       </c>
@@ -21436,7 +21535,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="56" t="s">
         <v>426</v>
       </c>
@@ -21462,7 +21561,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="61"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="56" t="s">
         <v>427</v>
       </c>
@@ -21482,7 +21581,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -21502,7 +21601,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -21521,7 +21620,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -21540,7 +21639,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -21551,7 +21650,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -22009,7 +22108,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -22039,7 +22138,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -22068,7 +22167,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -22097,7 +22196,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -22126,7 +22225,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -22155,7 +22254,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -22184,7 +22283,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -22210,7 +22309,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -22236,7 +22335,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -22256,7 +22355,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -22276,7 +22375,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -22295,7 +22394,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -22314,7 +22413,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -22333,7 +22432,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -22352,7 +22451,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -22371,7 +22470,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -22398,7 +22497,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="51" t="s">
         <v>434</v>
       </c>
@@ -22424,7 +22523,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -22450,7 +22549,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -22476,7 +22575,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -22502,7 +22601,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -22528,7 +22627,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -22554,7 +22653,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -22580,7 +22679,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -22600,7 +22699,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -22620,7 +22719,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -22639,7 +22738,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -22658,7 +22757,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -22677,7 +22776,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="51" t="s">
         <v>435</v>
       </c>
@@ -22696,7 +22795,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -22707,7 +22806,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -22734,7 +22833,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="51" t="s">
         <v>436</v>
       </c>
@@ -22760,7 +22859,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="51" t="s">
         <v>437</v>
       </c>
@@ -22786,7 +22885,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -22812,7 +22911,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="51" t="s">
         <v>438</v>
       </c>
@@ -22838,7 +22937,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -22864,7 +22963,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="51" t="s">
         <v>439</v>
       </c>
@@ -22890,7 +22989,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -22916,7 +23015,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="51" t="s">
         <v>440</v>
       </c>
@@ -22936,7 +23035,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="51" t="s">
         <v>441</v>
       </c>
@@ -22956,7 +23055,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -22975,7 +23074,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="51" t="s">
         <v>442</v>
       </c>
@@ -22994,7 +23093,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="51" t="s">
         <v>435</v>
       </c>
@@ -23013,7 +23112,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -23260,7 +23359,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -23279,7 +23378,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -23296,7 +23395,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -23314,7 +23413,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -23332,7 +23431,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -23350,7 +23449,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -23368,7 +23467,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="56" t="s">
         <v>443</v>
       </c>
@@ -23388,7 +23487,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -23406,7 +23505,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -23418,7 +23517,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -23430,7 +23529,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -23441,7 +23540,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -23452,7 +23551,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -23463,7 +23562,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -23474,7 +23573,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -23485,7 +23584,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -23512,7 +23611,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="51" t="s">
         <v>444</v>
       </c>
@@ -23538,7 +23637,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="51" t="s">
         <v>445</v>
       </c>
@@ -23564,7 +23663,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -23590,7 +23689,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="51" t="s">
         <v>446</v>
       </c>
@@ -23616,7 +23715,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="51" t="s">
         <v>392</v>
       </c>
@@ -23642,7 +23741,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -23668,7 +23767,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="51" t="s">
         <v>393</v>
       </c>
@@ -23694,7 +23793,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -23714,7 +23813,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -23734,7 +23833,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -23753,7 +23852,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="51" t="s">
         <v>395</v>
       </c>
@@ -23772,7 +23871,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="51" t="s">
         <v>396</v>
       </c>
@@ -23791,7 +23890,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -23802,7 +23901,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="62"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -23813,7 +23912,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -23840,7 +23939,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="51" t="s">
         <v>448</v>
       </c>
@@ -23866,7 +23965,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -23892,7 +23991,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="51" t="s">
         <v>449</v>
       </c>
@@ -23918,7 +24017,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="51" t="s">
         <v>450</v>
       </c>
@@ -23944,7 +24043,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="51" t="s">
         <v>451</v>
       </c>
@@ -23970,7 +24069,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="51" t="s">
         <v>452</v>
       </c>
@@ -23996,7 +24095,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="51" t="s">
         <v>453</v>
       </c>
@@ -24022,7 +24121,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="51" t="s">
         <v>415</v>
       </c>
@@ -24042,7 +24141,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="51" t="s">
         <v>454</v>
       </c>
@@ -24062,7 +24161,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="51" t="s">
         <v>455</v>
       </c>
@@ -24081,7 +24180,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -24098,7 +24197,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -24115,7 +24214,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -24375,7 +24474,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="65" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -24400,7 +24499,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -24424,7 +24523,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -24448,7 +24547,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -24472,7 +24571,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -24568,7 +24667,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -24577,7 +24676,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -24585,7 +24684,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -24593,7 +24692,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -24601,7 +24700,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -25323,7 +25422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -25363,7 +25462,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -25393,7 +25492,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -25422,7 +25521,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -25451,7 +25550,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -25480,7 +25579,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -25509,7 +25608,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -25538,7 +25637,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -25564,7 +25663,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -25590,7 +25689,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -25610,7 +25709,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -25630,7 +25729,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -25649,7 +25748,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -25668,7 +25767,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -25687,7 +25786,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -25706,7 +25805,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -25725,7 +25824,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -25752,7 +25851,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="51" t="s">
         <v>458</v>
       </c>
@@ -25778,7 +25877,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -25804,7 +25903,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="51" t="s">
         <v>459</v>
       </c>
@@ -25830,7 +25929,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -25856,7 +25955,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="51" t="s">
         <v>460</v>
       </c>
@@ -25882,7 +25981,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -25897,7 +25996,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -25912,7 +26011,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -25921,7 +26020,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -25933,7 +26032,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -25944,7 +26043,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -25955,7 +26054,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -25966,7 +26065,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -25977,7 +26076,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -25988,7 +26087,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -26006,7 +26105,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -26024,7 +26123,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -26042,7 +26141,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -26060,7 +26159,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -26078,7 +26177,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="51" t="s">
         <v>461</v>
       </c>
@@ -26098,7 +26197,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -26116,7 +26215,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -26134,7 +26233,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -26146,7 +26245,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -26158,7 +26257,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -26169,7 +26268,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -26180,7 +26279,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -26191,7 +26290,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -26483,7 +26582,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -26502,7 +26601,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -26519,7 +26618,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -26537,7 +26636,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -26555,7 +26654,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -26573,7 +26672,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -26591,7 +26690,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="56" t="s">
         <v>470</v>
       </c>
@@ -26611,7 +26710,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -26629,7 +26728,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -26641,7 +26740,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -26653,7 +26752,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -26664,7 +26763,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -26675,7 +26774,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -26686,7 +26785,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -26697,7 +26796,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -26708,7 +26807,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -26729,7 +26828,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -26747,7 +26846,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -26765,7 +26864,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -26783,7 +26882,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -26801,7 +26900,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -26819,7 +26918,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -26837,7 +26936,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -26855,7 +26954,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -26867,7 +26966,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -26879,7 +26978,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -26890,7 +26989,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -26901,7 +27000,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -26912,7 +27011,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -26923,7 +27022,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="62"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -26934,7 +27033,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -26961,7 +27060,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="51" t="s">
         <v>473</v>
       </c>
@@ -26987,7 +27086,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="56" t="s">
         <v>474</v>
       </c>
@@ -27013,7 +27112,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -27037,7 +27136,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -27061,7 +27160,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -27085,7 +27184,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -27109,7 +27208,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -27133,7 +27232,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -27151,7 +27250,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -27169,7 +27268,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -27186,7 +27285,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -27203,7 +27302,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -27220,7 +27319,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -27480,7 +27579,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="65" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -27507,7 +27606,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="51" t="s">
         <v>476</v>
       </c>
@@ -27533,7 +27632,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="51" t="s">
         <v>477</v>
       </c>
@@ -27559,7 +27658,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="51" t="s">
         <v>478</v>
       </c>
@@ -27585,7 +27684,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="58" t="s">
         <v>479</v>
       </c>
@@ -27707,7 +27806,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="59" t="s">
         <v>484</v>
       </c>
@@ -27726,7 +27825,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="51" t="s">
         <v>485</v>
       </c>
@@ -27744,7 +27843,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -27752,7 +27851,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -27760,7 +27859,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -28140,8 +28239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FEAF5B-97F7-432E-B793-D5FB1B024CCE}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28180,7 +28279,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -28208,7 +28307,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -28235,7 +28334,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -28262,7 +28361,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -28289,7 +28388,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -28316,7 +28415,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -28342,7 +28441,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -28366,7 +28465,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -28390,7 +28489,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -28408,7 +28507,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -28426,7 +28525,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -28443,7 +28542,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -28460,7 +28559,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -28477,7 +28576,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -28494,7 +28593,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -28511,7 +28610,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -28538,7 +28637,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="51" t="s">
         <v>492</v>
       </c>
@@ -28564,7 +28663,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -28590,7 +28689,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="51" t="s">
         <v>459</v>
       </c>
@@ -28616,7 +28715,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="51" t="s">
         <v>493</v>
       </c>
@@ -28642,7 +28741,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -28660,7 +28759,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -28675,7 +28774,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -28690,7 +28789,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -28699,7 +28798,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -28711,7 +28810,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -28722,7 +28821,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -28733,7 +28832,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -28744,7 +28843,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -28755,7 +28854,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -28766,7 +28865,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -28787,7 +28886,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -28805,7 +28904,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -28823,7 +28922,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="51" t="s">
         <v>495</v>
       </c>
@@ -28849,7 +28948,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -28867,7 +28966,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -28885,7 +28984,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -28903,7 +29002,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -28921,7 +29020,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -28933,7 +29032,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -28945,7 +29044,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -28956,7 +29055,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -28967,7 +29066,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -28978,7 +29077,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -29003,18 +29102,20 @@
       <c r="A47" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="55" t="s">
+        <v>496</v>
+      </c>
       <c r="C47" s="51" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D47" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E47" s="52">
         <v>0.375</v>
       </c>
-      <c r="E47" s="52">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="F47" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>286</v>
@@ -29025,86 +29126,78 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="64"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="55" t="s">
+        <v>497</v>
+      </c>
       <c r="C48" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D48" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E48" s="52">
-        <v>0.44791666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="F48" s="52">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I48" s="52">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0</v>
+        <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="64"/>
-      <c r="B49" s="55"/>
+      <c r="B49" s="55" t="s">
+        <v>498</v>
+      </c>
       <c r="C49" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D49" s="52">
-        <v>0.44791666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E49" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F49" s="52">
-        <v>1.0416666666666666E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I49" s="52">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="64"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D50" s="52">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E50" s="52">
-        <v>0.5</v>
-      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="64"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="52">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="53" t="s">
         <v>293</v>
@@ -29117,17 +29210,11 @@
     <row r="52" spans="1:9">
       <c r="A52" s="64"/>
       <c r="B52" s="55"/>
-      <c r="C52" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D52" s="52">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E52" s="52">
-        <v>0.5625</v>
-      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="52">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>296</v>
@@ -29140,23 +29227,17 @@
     <row r="53" spans="1:9">
       <c r="A53" s="64"/>
       <c r="B53" s="55"/>
-      <c r="C53" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D53" s="52">
-        <v>0.5625</v>
-      </c>
-      <c r="E53" s="52">
-        <v>0.60416666666666663</v>
-      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -29173,7 +29254,7 @@
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -29256,7 +29337,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -29275,7 +29356,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -29292,7 +29373,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -29310,7 +29391,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -29328,7 +29409,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -29346,7 +29427,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -29364,7 +29445,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -29382,7 +29463,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -29400,7 +29481,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -29412,7 +29493,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -29424,7 +29505,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -29435,7 +29516,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -29446,7 +29527,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -29457,7 +29538,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -29468,7 +29549,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -29479,11 +29560,11 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -29506,9 +29587,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="56" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -29532,9 +29613,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="51" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>288</v>
@@ -29558,9 +29639,9 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="51" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>288</v>
@@ -29584,9 +29665,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="51" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -29610,7 +29691,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -29636,9 +29717,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="56" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C83" s="51" t="s">
         <v>288</v>
@@ -29662,7 +29743,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -29680,7 +29761,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -29692,7 +29773,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -29704,7 +29785,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -29715,7 +29796,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -29726,7 +29807,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -29737,7 +29818,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -29748,7 +29829,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="62"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -29759,7 +29840,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -29784,7 +29865,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -29808,7 +29889,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -29832,7 +29913,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -29856,7 +29937,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -29880,7 +29961,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -29904,7 +29985,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -29928,7 +30009,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -29954,7 +30035,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -29972,7 +30053,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -29990,7 +30071,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -30007,7 +30088,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -30024,7 +30105,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -30041,7 +30122,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -30186,7 +30267,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="64"/>
       <c r="B113" s="55" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C113" s="51"/>
       <c r="D113" s="52"/>
@@ -30301,7 +30382,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="65" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -30326,7 +30407,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -30350,7 +30431,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -30374,7 +30455,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -30398,7 +30479,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -30510,7 +30591,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51" t="s">
         <v>288</v>
@@ -30527,7 +30608,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -30543,7 +30624,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -30551,7 +30632,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -30559,7 +30640,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -30579,7 +30660,7 @@
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>288</v>
@@ -30604,7 +30685,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="64"/>
       <c r="B138" s="55" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>295</v>
@@ -30630,7 +30711,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="64"/>
       <c r="B139" s="55" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>290</v>
@@ -30656,7 +30737,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="64"/>
       <c r="B140" s="55" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C140" s="51" t="s">
         <v>295</v>
@@ -30682,7 +30763,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="64"/>
       <c r="B141" s="55" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C141" s="51" t="s">
         <v>288</v>
@@ -30708,7 +30789,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="64"/>
       <c r="B142" s="55" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C142" s="51" t="s">
         <v>290</v>
@@ -30734,7 +30815,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="64"/>
       <c r="B143" s="55" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C143" s="51" t="s">
         <v>295</v>
@@ -30760,7 +30841,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="64"/>
       <c r="B144" s="58" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C144" s="51" t="s">
         <v>288</v>
@@ -30786,7 +30867,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="67"/>
       <c r="B145" s="57" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C145" s="55" t="s">
         <v>295</v>
@@ -30947,8 +31028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC0228F-0EB8-4F43-9E8D-C30BD6499302}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30987,7 +31068,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -31015,7 +31096,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -31042,7 +31123,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -31069,7 +31150,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -31096,7 +31177,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -31123,7 +31204,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -31149,7 +31230,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -31173,7 +31254,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -31197,7 +31278,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -31215,7 +31296,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -31233,7 +31314,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -31250,7 +31331,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -31267,7 +31348,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -31284,7 +31365,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -31301,7 +31382,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -31318,7 +31399,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -31345,9 +31426,9 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="51" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>288</v>
@@ -31371,7 +31452,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -31397,9 +31478,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="51" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>288</v>
@@ -31423,9 +31504,9 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="51" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>295</v>
@@ -31449,9 +31530,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="51" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>288</v>
@@ -31475,7 +31556,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -31490,7 +31571,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -31505,7 +31586,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -31514,7 +31595,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -31526,7 +31607,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -31537,7 +31618,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -31548,7 +31629,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -31559,7 +31640,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -31570,7 +31651,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -31581,7 +31662,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -31599,7 +31680,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -31617,7 +31698,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -31635,7 +31716,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -31653,7 +31734,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -31671,7 +31752,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -31691,7 +31772,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -31709,7 +31790,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -31727,7 +31808,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -31739,7 +31820,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -31751,7 +31832,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -31762,7 +31843,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -31773,7 +31854,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -31784,7 +31865,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -31809,18 +31890,20 @@
       <c r="A47" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="55" t="s">
+        <v>521</v>
+      </c>
       <c r="C47" s="51" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D47" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E47" s="52">
         <v>0.375</v>
       </c>
-      <c r="E47" s="52">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="F47" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>286</v>
@@ -31831,83 +31914,90 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="64"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="55" t="s">
+        <v>522</v>
+      </c>
       <c r="C48" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D48" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E48" s="52">
-        <v>0.44791666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="F48" s="52">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="I48" s="52">
-        <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0</v>
+      <c r="I48" s="52" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="64"/>
-      <c r="B49" s="55"/>
+      <c r="B49" s="55" t="s">
+        <v>524</v>
+      </c>
       <c r="C49" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D49" s="52">
-        <v>0.44791666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E49" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F49" s="52">
-        <v>1.0416666666666666E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="H49" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I49" s="52">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="64"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="55" t="s">
+        <v>525</v>
+      </c>
       <c r="C50" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D50" s="52">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E50" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E50" s="52">
-        <v>0.5</v>
-      </c>
       <c r="F50" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="64"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="55" t="s">
+        <v>526</v>
+      </c>
       <c r="C51" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D51" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E51" s="52">
         <v>0.5</v>
-      </c>
-      <c r="E51" s="52">
-        <v>0.54166666666666663</v>
       </c>
       <c r="F51" s="52">
         <v>4.1666666666666664E-2</v>
@@ -31922,15 +32012,17 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="64"/>
-      <c r="B52" s="55"/>
+      <c r="B52" s="55" t="s">
+        <v>527</v>
+      </c>
       <c r="C52" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D52" s="52">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="52">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F52" s="52">
         <v>2.0833333333333332E-2</v>
@@ -31945,15 +32037,17 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="64"/>
-      <c r="B53" s="55"/>
+      <c r="B53" s="55" t="s">
+        <v>528</v>
+      </c>
       <c r="C53" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D53" s="52">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E53" s="52">
         <v>0.5625</v>
-      </c>
-      <c r="E53" s="52">
-        <v>0.60416666666666663</v>
       </c>
       <c r="F53" s="52">
         <v>4.1666666666666664E-2</v>
@@ -31962,59 +32056,87 @@
         <v>295</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="64"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B54" s="55" t="s">
+        <v>530</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>533</v>
       </c>
       <c r="H54" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="64"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B55" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>537</v>
       </c>
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="64"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B56" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>538</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>539</v>
       </c>
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="64"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B57" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>538</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -32062,7 +32184,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -32081,7 +32203,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -32098,7 +32220,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -32116,7 +32238,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -32134,7 +32256,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -32152,7 +32274,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -32170,7 +32292,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -32188,7 +32310,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -32206,7 +32328,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -32218,7 +32340,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -32230,7 +32352,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -32241,7 +32363,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -32252,7 +32374,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -32263,7 +32385,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -32274,7 +32396,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -32285,11 +32407,11 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -32312,9 +32434,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="51" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -32338,9 +32460,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="51" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>295</v>
@@ -32364,9 +32486,9 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="51" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>288</v>
@@ -32390,9 +32512,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="51" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>288</v>
@@ -32416,9 +32538,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="51" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>288</v>
@@ -32442,9 +32564,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="51" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="C83" s="51" t="s">
         <v>285</v>
@@ -32468,9 +32590,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="51" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>290</v>
@@ -32494,9 +32616,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="51" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>295</v>
@@ -32514,9 +32636,9 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="51" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C86" s="51" t="s">
         <v>285</v>
@@ -32534,9 +32656,9 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="51" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>288</v>
@@ -32553,9 +32675,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="51" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="C88" s="51" t="s">
         <v>288</v>
@@ -32572,7 +32694,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -32583,7 +32705,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -32594,7 +32716,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="62"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -32605,7 +32727,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -32632,9 +32754,9 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="51" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -32658,9 +32780,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="56" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>290</v>
@@ -32684,9 +32806,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="51" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -32710,7 +32832,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="51" t="s">
         <v>452</v>
       </c>
@@ -32736,9 +32858,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="51" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -32762,9 +32884,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="51" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>288</v>
@@ -32788,7 +32910,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -32814,9 +32936,9 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="51" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="C100" s="51" t="s">
         <v>285</v>
@@ -32834,9 +32956,9 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="51" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -32854,7 +32976,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -32871,7 +32993,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -32888,7 +33010,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -32905,7 +33027,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -33163,7 +33285,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="65" t="s">
+      <c r="A122" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -33188,7 +33310,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -33212,7 +33334,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -33236,7 +33358,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -33260,7 +33382,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -33372,7 +33494,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51" t="s">
         <v>288</v>
@@ -33389,7 +33511,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -33405,7 +33527,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -33413,7 +33535,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -33421,7 +33543,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -33441,7 +33563,7 @@
         <v>276</v>
       </c>
       <c r="B137" s="51" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>288</v>
@@ -33466,7 +33588,7 @@
     <row r="138" spans="1:9">
       <c r="A138" s="64"/>
       <c r="B138" s="51" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>295</v>
@@ -33492,7 +33614,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="64"/>
       <c r="B139" s="51" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>288</v>
@@ -33518,7 +33640,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="64"/>
       <c r="B140" s="51" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="C140" s="51" t="s">
         <v>288</v>
@@ -33544,7 +33666,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="64"/>
       <c r="B141" s="51" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="C141" s="51" t="s">
         <v>295</v>
@@ -33570,7 +33692,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="64"/>
       <c r="B142" s="51" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="C142" s="51" t="s">
         <v>288</v>
@@ -33596,7 +33718,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="64"/>
       <c r="B143" s="51" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C143" s="51" t="s">
         <v>295</v>
@@ -33622,7 +33744,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="64"/>
       <c r="B144" s="51" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="C144" s="51" t="s">
         <v>288</v>
@@ -33648,7 +33770,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="64"/>
       <c r="B145" s="51" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="C145" s="51" t="s">
         <v>288</v>
@@ -33668,7 +33790,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="64"/>
       <c r="B146" s="51" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="C146" s="51" t="s">
         <v>290</v>
@@ -33817,8 +33939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFAAE3-2D0E-4849-B0C4-827EFC465E1B}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="N104" sqref="N104"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33857,7 +33979,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -33885,7 +34007,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -33912,7 +34034,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -33939,7 +34061,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -33966,7 +34088,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -33993,7 +34115,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -34019,7 +34141,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -34043,7 +34165,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -34067,7 +34189,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -34085,7 +34207,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -34103,7 +34225,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -34120,7 +34242,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -34137,7 +34259,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -34154,7 +34276,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -34171,7 +34293,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -34188,11 +34310,11 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>288</v>
@@ -34215,9 +34337,9 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="51" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>288</v>
@@ -34241,7 +34363,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -34267,9 +34389,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="51" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>288</v>
@@ -34293,9 +34415,9 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="51" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>288</v>
@@ -34319,7 +34441,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -34345,9 +34467,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="51" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>288</v>
@@ -34371,9 +34493,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="51" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>290</v>
@@ -34397,7 +34519,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -34417,9 +34539,9 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="51" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>288</v>
@@ -34437,9 +34559,9 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="51" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>288</v>
@@ -34456,7 +34578,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -34467,7 +34589,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -34478,7 +34600,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -34489,7 +34611,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -34500,7 +34622,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -34527,9 +34649,9 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="51" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>288</v>
@@ -34553,9 +34675,9 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="51" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>288</v>
@@ -34579,9 +34701,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="51" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>295</v>
@@ -34605,9 +34727,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="51" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>288</v>
@@ -34631,9 +34753,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="51" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>290</v>
@@ -34657,9 +34779,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="51" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>288</v>
@@ -34683,7 +34805,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -34709,9 +34831,9 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="51" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>288</v>
@@ -34729,9 +34851,9 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="51" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>288</v>
@@ -34749,7 +34871,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -34768,9 +34890,9 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="51" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>288</v>
@@ -34787,7 +34909,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -34798,7 +34920,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -34823,18 +34945,20 @@
       <c r="A47" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="55" t="s">
+        <v>585</v>
+      </c>
       <c r="C47" s="51" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D47" s="52">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E47" s="52">
         <v>0.375</v>
       </c>
-      <c r="E47" s="52">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="F47" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>286</v>
@@ -34845,38 +34969,42 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="64"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="55" t="s">
+        <v>586</v>
+      </c>
       <c r="C48" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D48" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E48" s="52">
-        <v>0.44791666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="F48" s="52">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I48" s="52">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="64"/>
-      <c r="B49" s="55"/>
+      <c r="B49" s="55" t="s">
+        <v>527</v>
+      </c>
       <c r="C49" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D49" s="52">
+        <v>0.4375</v>
+      </c>
+      <c r="E49" s="52">
         <v>0.44791666666666669</v>
-      </c>
-      <c r="E49" s="52">
-        <v>0.45833333333333331</v>
       </c>
       <c r="F49" s="52">
         <v>1.0416666666666666E-2</v>
@@ -34886,20 +35014,22 @@
       </c>
       <c r="I49" s="52">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="64"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="51" t="s">
+        <v>580</v>
+      </c>
       <c r="C50" s="51" t="s">
         <v>290</v>
       </c>
       <c r="D50" s="52">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E50" s="52">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F50" s="52">
         <v>4.1666666666666664E-2</v>
@@ -34908,23 +35038,19 @@
         <v>290</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>465</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="64"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="52">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="B51" s="55" t="s">
+        <v>588</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="53" t="s">
         <v>293</v>
@@ -34937,17 +35063,11 @@
     <row r="52" spans="1:9">
       <c r="A52" s="64"/>
       <c r="B52" s="55"/>
-      <c r="C52" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D52" s="52">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E52" s="52">
-        <v>0.5625</v>
-      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="52">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>296</v>
@@ -34960,23 +35080,17 @@
     <row r="53" spans="1:9">
       <c r="A53" s="64"/>
       <c r="B53" s="55"/>
-      <c r="C53" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D53" s="52">
-        <v>0.5625</v>
-      </c>
-      <c r="E53" s="52">
-        <v>0.60416666666666663</v>
-      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="52">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>468</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -34993,7 +35107,7 @@
         <v>300</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>469</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -35076,7 +35190,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -35095,7 +35209,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -35112,7 +35226,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -35130,7 +35244,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -35148,7 +35262,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -35166,7 +35280,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -35184,7 +35298,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -35202,7 +35316,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -35220,7 +35334,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -35232,7 +35346,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -35244,7 +35358,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -35255,7 +35369,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -35266,7 +35380,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -35277,7 +35391,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -35288,7 +35402,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -35299,11 +35413,11 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>288</v>
@@ -35326,9 +35440,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="51" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>288</v>
@@ -35352,7 +35466,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -35378,9 +35492,9 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="51" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>288</v>
@@ -35404,9 +35518,9 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="51" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>285</v>
@@ -35430,9 +35544,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="51" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>295</v>
@@ -35456,9 +35570,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="51" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="C83" s="51" t="s">
         <v>288</v>
@@ -35482,9 +35596,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="51" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>295</v>
@@ -35508,9 +35622,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="51" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>288</v>
@@ -35528,9 +35642,9 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="51" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="C86" s="51" t="s">
         <v>285</v>
@@ -35548,9 +35662,9 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="51" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>288</v>
@@ -35568,7 +35682,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -35579,7 +35693,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -35590,7 +35704,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -35601,7 +35715,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -35612,7 +35726,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="62"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -35623,7 +35737,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="65" t="s">
+      <c r="A93" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -35650,9 +35764,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="51" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>293</v>
@@ -35676,9 +35790,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="56" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C95" s="51" t="s">
         <v>295</v>
@@ -35702,9 +35816,9 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="51" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>288</v>
@@ -35728,9 +35842,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="51" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>295</v>
@@ -35754,9 +35868,9 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="51" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>288</v>
@@ -35780,7 +35894,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -35806,9 +35920,9 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="51" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -35832,7 +35946,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -35850,7 +35964,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -35868,7 +35982,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -35885,7 +35999,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -35902,7 +36016,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -35919,7 +36033,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -35957,7 +36071,7 @@
         <v>30</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
       <c r="C108" s="51" t="s">
         <v>288</v>
@@ -35982,7 +36096,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="64"/>
       <c r="B109" s="55" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="C109" s="51" t="s">
         <v>288</v>
@@ -36008,7 +36122,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="64"/>
       <c r="B110" s="55" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="C110" s="51" t="s">
         <v>288</v>
@@ -36060,7 +36174,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="64"/>
       <c r="B112" s="55" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="C112" s="51" t="s">
         <v>288</v>
@@ -36086,7 +36200,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="64"/>
       <c r="B113" s="55" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="C113" s="51" t="s">
         <v>290</v>
@@ -36112,7 +36226,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="64"/>
       <c r="B114" s="55" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="C114" s="51" t="s">
         <v>288</v>
@@ -36164,7 +36278,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="64"/>
       <c r="B116" s="55" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="C116" s="51" t="s">
         <v>288</v>
@@ -36204,7 +36318,7 @@
     <row r="118" spans="1:9">
       <c r="A118" s="64"/>
       <c r="B118" s="55" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="C118" s="51" t="s">
         <v>288</v>
@@ -36223,7 +36337,7 @@
     <row r="119" spans="1:9">
       <c r="A119" s="64"/>
       <c r="B119" s="55" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="C119" s="51" t="s">
         <v>288</v>
@@ -36242,7 +36356,7 @@
     <row r="120" spans="1:9">
       <c r="A120" s="64"/>
       <c r="B120" s="55" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="C120" s="51" t="s">
         <v>288</v>
@@ -36281,7 +36395,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="65" t="s">
+      <c r="A123" s="61" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51"/>
@@ -36306,7 +36420,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>295</v>
@@ -36330,7 +36444,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>288</v>
@@ -36354,7 +36468,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="51"/>
       <c r="C126" s="51" t="s">
         <v>295</v>
@@ -36378,7 +36492,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="58"/>
       <c r="C127" s="51" t="s">
         <v>288</v>
@@ -36490,7 +36604,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="59"/>
       <c r="C132" s="51" t="s">
         <v>288</v>
@@ -36507,7 +36621,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51" t="s">
         <v>288</v>
@@ -36523,7 +36637,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -36531,7 +36645,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -36539,7 +36653,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -36559,7 +36673,7 @@
         <v>276</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>288</v>
@@ -36584,7 +36698,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="64"/>
       <c r="B139" s="55" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>295</v>
@@ -36610,7 +36724,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="64"/>
       <c r="B140" s="55" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="C140" s="51" t="s">
         <v>288</v>
@@ -36636,7 +36750,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="64"/>
       <c r="B141" s="55" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="C141" s="51" t="s">
         <v>290</v>
@@ -36662,7 +36776,7 @@
     <row r="142" spans="1:9">
       <c r="A142" s="64"/>
       <c r="B142" s="55" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="C142" s="51" t="s">
         <v>295</v>
@@ -36688,7 +36802,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="64"/>
       <c r="B143" s="55" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="C143" s="51" t="s">
         <v>288</v>
@@ -36714,7 +36828,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="64"/>
       <c r="B144" s="55" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="C144" s="51" t="s">
         <v>288</v>
@@ -36740,7 +36854,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="64"/>
       <c r="B145" s="58" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C145" s="51" t="s">
         <v>295</v>
@@ -36766,7 +36880,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="67"/>
       <c r="B146" s="60" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="C146" s="55" t="s">
         <v>288</v>
